--- a/requirements/Themis_tests.xlsx
+++ b/requirements/Themis_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED5CB8A4-8274-934D-8816-EFC0F5C2FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E82C4-12BF-A444-8CC9-E93273FEFDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31160" yWindow="1200" windowWidth="27640" windowHeight="16440" xr2:uid="{8D732350-0E00-D14A-8C22-1DF3CE8066E5}"/>
   </bookViews>
@@ -105,12 +105,6 @@
     <t>cm-r7</t>
   </si>
   <si>
-    <t>A mapping can include metadata on the dataset and/or data source</t>
-  </si>
-  <si>
-    <t>DataService servesDataset Dataset ;</t>
-  </si>
-  <si>
     <t>cm-r8</t>
   </si>
   <si>
@@ -355,7 +349,15 @@
     <t>A statement map can have datatype and language tags using data from different sources using combined frames</t>
   </si>
   <si>
-    <t>StatementMap hasDataType LiteralMap ;
+    <t>A mapping can describe data sources and their access</t>
+  </si>
+  <si>
+    <t>StatementMap hasFrame SourceFrame ;
+SourceFrame hasDataSource DataSource ;
+DataSource accessService DataAccessService ;</t>
+  </si>
+  <si>
+    <t>StatementMap hasDataType ReferenceNodeMap ;
 StatementMap hasLanguage LiteralMap ;
 StatementMap hasFrame CombinedFrame ;
 CombinedFrame combinesFrame SourceFrame ;
@@ -754,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA759B8A-0171-F048-9BD3-B8243F3E4742}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,243 +844,243 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>86</v>
